--- a/Download Reports/Yearly-Report-2018-IT231232.xlsx
+++ b/Download Reports/Yearly-Report-2018-IT231232.xlsx
@@ -14,7 +14,326 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <x:si>
+    <x:t>InvoiceNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Currency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>494597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>308628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>668543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27691.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57076.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>342460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>292866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58573.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>351439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>658.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3951.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>491082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58085.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>348511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>930159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>434834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48108.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>288650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>636498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26937.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>905055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20409.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>934243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21737.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38898.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>496242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1253.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7519.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>966456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12429.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74576.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>249394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49878.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4730.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28381.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150788</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30157.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180946</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-23</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,12 +682,450 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:G3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
